--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntn2-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntn2-Cntn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,10 +79,10 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Cntn2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1853815</v>
+        <v>0.0700585</v>
       </c>
       <c r="H2">
-        <v>0.370763</v>
+        <v>0.140117</v>
       </c>
       <c r="I2">
-        <v>0.6418326948411097</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J2">
-        <v>0.6100042118840943</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,27 +561,27 @@
         <v>0.34355</v>
       </c>
       <c r="O2">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02122927144166667</v>
+        <v>0.008022865891666666</v>
       </c>
       <c r="R2">
-        <v>0.12737562865</v>
+        <v>0.04813719535</v>
       </c>
       <c r="S2">
-        <v>0.380195203907556</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="T2">
-        <v>0.4181612509159307</v>
+        <v>0.4377808049690373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1853815</v>
+        <v>0.011109</v>
       </c>
       <c r="H3">
-        <v>0.370763</v>
+        <v>0.033327</v>
       </c>
       <c r="I3">
-        <v>0.6418326948411097</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="J3">
-        <v>0.6100042118840943</v>
+        <v>0.1041267004517875</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0788065</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="N3">
-        <v>0.157613</v>
+        <v>0.34355</v>
       </c>
       <c r="O3">
-        <v>0.4076412638940496</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.3144944858259688</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01460926717975</v>
+        <v>0.00127216565</v>
       </c>
       <c r="R3">
-        <v>0.058437068719</v>
+        <v>0.01144949085</v>
       </c>
       <c r="S3">
-        <v>0.2616374909335538</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="T3">
-        <v>0.1918429609681635</v>
+        <v>0.1041267004517875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -667,10 +667,10 @@
         <v>0.146618</v>
       </c>
       <c r="I4">
-        <v>0.2538123438752352</v>
+        <v>0.4745640922729347</v>
       </c>
       <c r="J4">
-        <v>0.2412257898927944</v>
+        <v>0.4580924945791753</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,10 +685,10 @@
         <v>0.34355</v>
       </c>
       <c r="O4">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0.008395102316666667</v>
@@ -697,196 +697,10 @@
         <v>0.0503706139</v>
       </c>
       <c r="S4">
-        <v>0.1503479592260232</v>
+        <v>0.4745640922729347</v>
       </c>
       <c r="T4">
-        <v>0.1653616091324968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0.073309</v>
-      </c>
-      <c r="H5">
-        <v>0.146618</v>
-      </c>
-      <c r="I5">
-        <v>0.2538123438752352</v>
-      </c>
-      <c r="J5">
-        <v>0.2412257898927944</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.5</v>
-      </c>
-      <c r="M5">
-        <v>0.0788065</v>
-      </c>
-      <c r="N5">
-        <v>0.157613</v>
-      </c>
-      <c r="O5">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="P5">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="Q5">
-        <v>0.0057772257085</v>
-      </c>
-      <c r="R5">
-        <v>0.023108902834</v>
-      </c>
-      <c r="S5">
-        <v>0.103464384649212</v>
-      </c>
-      <c r="T5">
-        <v>0.07586418076029755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.030141</v>
-      </c>
-      <c r="H6">
-        <v>0.090423</v>
-      </c>
-      <c r="I6">
-        <v>0.104354961283655</v>
-      </c>
-      <c r="J6">
-        <v>0.1487699982231114</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.1145166666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.34355</v>
-      </c>
-      <c r="O6">
-        <v>0.5923587361059505</v>
-      </c>
-      <c r="P6">
-        <v>0.6855055141740312</v>
-      </c>
-      <c r="Q6">
-        <v>0.00345164685</v>
-      </c>
-      <c r="R6">
-        <v>0.03106482165</v>
-      </c>
-      <c r="S6">
-        <v>0.06181557297237127</v>
-      </c>
-      <c r="T6">
-        <v>0.1019826541256037</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.030141</v>
-      </c>
-      <c r="H7">
-        <v>0.090423</v>
-      </c>
-      <c r="I7">
-        <v>0.104354961283655</v>
-      </c>
-      <c r="J7">
-        <v>0.1487699982231114</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>0.0788065</v>
-      </c>
-      <c r="N7">
-        <v>0.157613</v>
-      </c>
-      <c r="O7">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="P7">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="Q7">
-        <v>0.0023753067165</v>
-      </c>
-      <c r="R7">
-        <v>0.014251840299</v>
-      </c>
-      <c r="S7">
-        <v>0.04253938831128374</v>
-      </c>
-      <c r="T7">
-        <v>0.04678734409750771</v>
+        <v>0.4580924945791753</v>
       </c>
     </row>
   </sheetData>
